--- a/Ressources/Convention de nommage - Ecotech.xlsx
+++ b/Ressources/Convention de nommage - Ecotech.xlsx
@@ -11,10 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Convention de nommage 
-Ecotech Solution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>Convention de nommage  
+EcotechSolutions</t>
   </si>
   <si>
     <t xml:space="preserve">MESSAGERIE / </t>
@@ -44,7 +44,7 @@
     <t>&lt;première-lettre-prénom&gt;.&lt;nom-famille&gt;</t>
   </si>
   <si>
-    <t>SW-DHCP_DNS_AD</t>
+    <t>SRV-DHCP_DNS_AD</t>
   </si>
   <si>
     <t>RP</t>
@@ -62,7 +62,7 @@
     <t>e.exemple</t>
   </si>
   <si>
-    <t>SW-MESSAGERIE</t>
+    <t>SRV-MESSAGERIE</t>
   </si>
   <si>
     <t>RS</t>
@@ -77,7 +77,7 @@
     <t>Developpement</t>
   </si>
   <si>
-    <t>SW-SAVE</t>
+    <t>SRV-SAVE</t>
   </si>
   <si>
     <t>PC-sc-xx</t>
@@ -89,7 +89,7 @@
     <t>Service commercial</t>
   </si>
   <si>
-    <t>SW-FICHIER</t>
+    <t>SRV-FICHIER</t>
   </si>
   <si>
     <t>PC-rh-xx</t>
@@ -101,7 +101,7 @@
     <t>Ressources Humaines</t>
   </si>
   <si>
-    <t>SW-WEB</t>
+    <t>SRV-WEB</t>
   </si>
   <si>
     <t>PC-fcpt-xx</t>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Direction des services informatique</t>
+  </si>
+  <si>
+    <t>DNS /</t>
+  </si>
+  <si>
+    <t>ecotechsolutions.fr</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>AD /</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +198,12 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -207,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,6 +248,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -447,15 +471,59 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="21.25"/>
-    <col customWidth="1" min="3" max="4" width="31.88"/>
-    <col customWidth="1" min="6" max="6" width="33.0"/>
+    <col customWidth="1" min="3" max="3" width="31.88"/>
+    <col customWidth="1" min="4" max="4" width="23.25"/>
+    <col customWidth="1" min="5" max="5" width="9.63"/>
+    <col customWidth="1" min="6" max="6" width="22.38"/>
     <col customWidth="1" min="8" max="8" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="45.0" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
@@ -607,9 +675,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
